--- a/data/trans_orig/P13A_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>15108</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9205</v>
+        <v>8911</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25686</v>
+        <v>25517</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03044417994259217</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0185498724567402</v>
+        <v>0.01795623201710994</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05176033255489019</v>
+        <v>0.05141910571723916</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -762,19 +762,19 @@
         <v>49762</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38789</v>
+        <v>38598</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64547</v>
+        <v>65521</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08036912236255994</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06264709114758578</v>
+        <v>0.06233773814123764</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1042474930123973</v>
+        <v>0.1058212512975616</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -783,19 +783,19 @@
         <v>64870</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51855</v>
+        <v>51412</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83183</v>
+        <v>82356</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05815755580322779</v>
+        <v>0.05815755580322778</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04648937567495338</v>
+        <v>0.04609224655516827</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07457527501796804</v>
+        <v>0.07383391010302029</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>25746</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15882</v>
+        <v>16101</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>41287</v>
+        <v>40963</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05188106926707377</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03200372201302589</v>
+        <v>0.03244566172255072</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08319797421295314</v>
+        <v>0.08254537196489636</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -833,19 +833,19 @@
         <v>46707</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36465</v>
+        <v>36529</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>59017</v>
+        <v>59334</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07543397715881771</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05889312208656215</v>
+        <v>0.05899698031480839</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09531589523546762</v>
+        <v>0.09582778461891789</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>95</v>
@@ -854,19 +854,19 @@
         <v>72453</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>56997</v>
+        <v>58425</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>91926</v>
+        <v>90809</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.06495530746096234</v>
+        <v>0.06495530746096236</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05109896312385757</v>
+        <v>0.05237965656058044</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08241372249662583</v>
+        <v>0.08141238430373236</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>97960</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>79026</v>
+        <v>80856</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>117339</v>
+        <v>119110</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1973995233255567</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1592464827750312</v>
+        <v>0.1629330696005138</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.236450449430131</v>
+        <v>0.2400203547668108</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>229</v>
@@ -904,19 +904,19 @@
         <v>159668</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>139124</v>
+        <v>141095</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>178873</v>
+        <v>181120</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2578745981521114</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.22469326479417</v>
+        <v>0.2278776952455374</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2888915388671324</v>
+        <v>0.2925200197698467</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>325</v>
@@ -925,19 +925,19 @@
         <v>257628</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>232708</v>
+        <v>229862</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>286113</v>
+        <v>286159</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2309692862062058</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2086275444366539</v>
+        <v>0.2060766254399793</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2565065130218763</v>
+        <v>0.2565482258724431</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>357437</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>334094</v>
+        <v>334490</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>379715</v>
+        <v>377733</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7202752274647772</v>
+        <v>0.7202752274647773</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6732373850342995</v>
+        <v>0.6740358205202164</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7651697726081168</v>
+        <v>0.7611750150401823</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>486</v>
@@ -975,19 +975,19 @@
         <v>363034</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>340508</v>
+        <v>339247</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>386179</v>
+        <v>384958</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5863223023265109</v>
+        <v>0.5863223023265108</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5499423153083043</v>
+        <v>0.5479045043210833</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6237029547891407</v>
+        <v>0.6217316416093545</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>803</v>
@@ -996,19 +996,19 @@
         <v>720470</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>687024</v>
+        <v>688710</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>750840</v>
+        <v>751667</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.645917850529604</v>
+        <v>0.6459178505296042</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.615932037715423</v>
+        <v>0.6174439529248936</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6731451631598141</v>
+        <v>0.6738864306058593</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>9114</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4693</v>
+        <v>4710</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16738</v>
+        <v>16719</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.009523391005118018</v>
+        <v>0.009523391005118016</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004904309202304162</v>
+        <v>0.004921942244778832</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01749066423888377</v>
+        <v>0.01747091527289056</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>71</v>
@@ -1121,19 +1121,19 @@
         <v>45844</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>35620</v>
+        <v>35080</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>58262</v>
+        <v>57887</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.04122298066158259</v>
+        <v>0.04122298066158258</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03202979445986699</v>
+        <v>0.03154459538261314</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05238935198775879</v>
+        <v>0.05205227564929589</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>82</v>
@@ -1142,19 +1142,19 @@
         <v>54957</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>43516</v>
+        <v>44296</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>67589</v>
+        <v>68462</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0265614658722388</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02103164488609606</v>
+        <v>0.02140864794152779</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03266655944825737</v>
+        <v>0.03308839226262476</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>17426</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10562</v>
+        <v>10346</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27960</v>
+        <v>27048</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01820994892785627</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01103734991045597</v>
+        <v>0.01081139787211412</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02921700452918391</v>
+        <v>0.0282637463435804</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -1192,19 +1192,19 @@
         <v>61661</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49520</v>
+        <v>48031</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77576</v>
+        <v>76216</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05544564674559712</v>
+        <v>0.0554456467455971</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04452889295012553</v>
+        <v>0.04318947927017293</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06975692816622968</v>
+        <v>0.06853395064790169</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>109</v>
@@ -1213,19 +1213,19 @@
         <v>79087</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64664</v>
+        <v>64520</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>96563</v>
+        <v>95928</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0382236025436776</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03125286486845945</v>
+        <v>0.03118300712476656</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04666986536639844</v>
+        <v>0.04636303644156247</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>151489</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>131465</v>
+        <v>131580</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>177419</v>
+        <v>178097</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1583007998562511</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1373767973207244</v>
+        <v>0.1374964756619979</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1853965029741426</v>
+        <v>0.186104718580275</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>423</v>
@@ -1263,19 +1263,19 @@
         <v>278532</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>254504</v>
+        <v>253600</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>304679</v>
+        <v>305508</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.250458278234349</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2288520603252204</v>
+        <v>0.2280389599806294</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2739691328096009</v>
+        <v>0.274714785135152</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>578</v>
@@ -1284,19 +1284,19 @@
         <v>430021</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>395277</v>
+        <v>397079</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>467512</v>
+        <v>464285</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2078341229430023</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1910417952572324</v>
+        <v>0.1919124919400077</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2259535148015571</v>
+        <v>0.2243940694727064</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>778941</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>753489</v>
+        <v>751499</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>802029</v>
+        <v>801563</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8139658602107747</v>
+        <v>0.8139658602107745</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7873692819800807</v>
+        <v>0.785290457296255</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8380916589682166</v>
+        <v>0.8376047799225104</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1017</v>
@@ -1334,19 +1334,19 @@
         <v>726054</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>696844</v>
+        <v>697893</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>752735</v>
+        <v>752434</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.6528730943584713</v>
+        <v>0.6528730943584712</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6266073127124958</v>
+        <v>0.6275502791110767</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6768645506962432</v>
+        <v>0.6765939571218706</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1739</v>
@@ -1355,19 +1355,19 @@
         <v>1504995</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1467194</v>
+        <v>1466416</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1546982</v>
+        <v>1541417</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7273808086410813</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7091109353286656</v>
+        <v>0.7087350277875802</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7476735073335602</v>
+        <v>0.744983676839273</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>5443</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2141</v>
+        <v>1821</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12623</v>
+        <v>12051</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.00520687999553626</v>
+        <v>0.005206879995536261</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002048499463902086</v>
+        <v>0.001742211260888882</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01207598866191409</v>
+        <v>0.01152832382190972</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>43</v>
@@ -1480,19 +1480,19 @@
         <v>33557</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>24068</v>
+        <v>24211</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>48038</v>
+        <v>46144</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03208186170548117</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02300983894896259</v>
+        <v>0.02314657242668164</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.045925537384728</v>
+        <v>0.04411501289831163</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>49</v>
@@ -1501,19 +1501,19 @@
         <v>39000</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>29070</v>
+        <v>28556</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>53659</v>
+        <v>53412</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.01864875226124169</v>
+        <v>0.0186487522612417</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01390058056247627</v>
+        <v>0.01365458599659567</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02565818819192961</v>
+        <v>0.0255402139877226</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>20717</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13821</v>
+        <v>13206</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>32151</v>
+        <v>31417</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.01981881294045992</v>
+        <v>0.01981881294045993</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01322149661896237</v>
+        <v>0.01263395701756178</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03075733384148927</v>
+        <v>0.03005570194368844</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>78</v>
@@ -1551,19 +1551,19 @@
         <v>52155</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>39815</v>
+        <v>40475</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>66677</v>
+        <v>66307</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.04986226336306943</v>
+        <v>0.04986226336306942</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03806481427909496</v>
+        <v>0.03869561262109563</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.06374556896289894</v>
+        <v>0.06339189740122068</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>101</v>
@@ -1572,19 +1572,19 @@
         <v>72872</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>58244</v>
+        <v>58854</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>88548</v>
+        <v>89748</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03484543611588453</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02785043515014357</v>
+        <v>0.02814213663745492</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04234106004114972</v>
+        <v>0.0429151512996482</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>182312</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>156653</v>
+        <v>157584</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>210262</v>
+        <v>212053</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1744097004563715</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1498632727417443</v>
+        <v>0.1507537565707506</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2011485930621012</v>
+        <v>0.2028622491052753</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>382</v>
@@ -1622,19 +1622,19 @@
         <v>255017</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>231933</v>
+        <v>231863</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>280071</v>
+        <v>278535</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2438049297419145</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2217355430128543</v>
+        <v>0.2216687059904477</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2677575855991453</v>
+        <v>0.2662884650245304</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>549</v>
@@ -1643,19 +1643,19 @@
         <v>437329</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>401979</v>
+        <v>398089</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>470886</v>
+        <v>472779</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2091186285580949</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1922152319174285</v>
+        <v>0.1903549967698252</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2251645386848687</v>
+        <v>0.2260697674627118</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>836836</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>805114</v>
+        <v>805859</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>862532</v>
+        <v>865037</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8005646066076322</v>
+        <v>0.8005646066076324</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7702176603395461</v>
+        <v>0.7709301829242872</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8251472925153188</v>
+        <v>0.8275435736405441</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1010</v>
@@ -1693,19 +1693,19 @@
         <v>705259</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>676718</v>
+        <v>678690</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>729743</v>
+        <v>729569</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6742509451895349</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6469651251432545</v>
+        <v>0.6488501735647014</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6976586924401863</v>
+        <v>0.6974922770785678</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1842</v>
@@ -1714,19 +1714,19 @@
         <v>1542096</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1504103</v>
+        <v>1500049</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1580693</v>
+        <v>1583306</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7373871830647788</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7192200503325721</v>
+        <v>0.7172816500712883</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7558434875104773</v>
+        <v>0.7570930458772929</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>9146</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4441</v>
+        <v>4694</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17328</v>
+        <v>17692</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009408335621232545</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004568403761589141</v>
+        <v>0.004828849592127011</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01782516310338031</v>
+        <v>0.01819974270015023</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -1839,19 +1839,19 @@
         <v>34145</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24472</v>
+        <v>24963</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47018</v>
+        <v>48501</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03784106426759695</v>
+        <v>0.03784106426759696</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0271213259269297</v>
+        <v>0.02766550975895846</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05210778409979001</v>
+        <v>0.05375091413094319</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>54</v>
@@ -1860,19 +1860,19 @@
         <v>43291</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31699</v>
+        <v>32542</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>58329</v>
+        <v>58550</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02309542369124112</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01691130519376276</v>
+        <v>0.01736082913978459</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03111816868232044</v>
+        <v>0.03123605567634533</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>24151</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15226</v>
+        <v>15193</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37415</v>
+        <v>37779</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02484406472806102</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0156623468513319</v>
+        <v>0.01562867630290036</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03848775698777514</v>
+        <v>0.0388622625586484</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>71</v>
@@ -1910,19 +1910,19 @@
         <v>43910</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34074</v>
+        <v>34233</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>55911</v>
+        <v>55916</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04866285381503262</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03776258802518031</v>
+        <v>0.03793833044133946</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06196278509465442</v>
+        <v>0.06196798111053165</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>94</v>
@@ -1931,19 +1931,19 @@
         <v>68061</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>54355</v>
+        <v>55109</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>84222</v>
+        <v>85604</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03631007166707583</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02899800375841252</v>
+        <v>0.02940004308372365</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04493183794134167</v>
+        <v>0.04566877925061909</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>150665</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>125898</v>
+        <v>128965</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>179442</v>
+        <v>183526</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1549872330524028</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1295094480440604</v>
+        <v>0.1326645557744967</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1845892126019017</v>
+        <v>0.1887904645932927</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>348</v>
@@ -1981,19 +1981,19 @@
         <v>248615</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>224720</v>
+        <v>223007</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>273201</v>
+        <v>274531</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2755253522843475</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2490443763344971</v>
+        <v>0.2471456561064169</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3027730036008955</v>
+        <v>0.3042474388465951</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>480</v>
@@ -2002,19 +2002,19 @@
         <v>399280</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>367190</v>
+        <v>364243</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>437509</v>
+        <v>434329</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2130124712995162</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.195892957802162</v>
+        <v>0.1943203591880706</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2334075565941554</v>
+        <v>0.231710740736307</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>788152</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>756954</v>
+        <v>758382</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>814931</v>
+        <v>813709</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8107603665983036</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7786674466541957</v>
+        <v>0.7801363111444568</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8383067696935343</v>
+        <v>0.8370500392485428</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>851</v>
@@ -2052,19 +2052,19 @@
         <v>575659</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>547576</v>
+        <v>549612</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>599792</v>
+        <v>603606</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6379707296330231</v>
+        <v>0.6379707296330229</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6068477885614388</v>
+        <v>0.6091032995628528</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6647149151936007</v>
+        <v>0.6689418097727182</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1630</v>
@@ -2073,19 +2073,19 @@
         <v>1363812</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1319654</v>
+        <v>1326257</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1394935</v>
+        <v>1404001</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7275820333421671</v>
+        <v>0.727582033342167</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7040242969676871</v>
+        <v>0.7075468650818691</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7441860557395584</v>
+        <v>0.7490227866742586</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>38810</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28083</v>
+        <v>28624</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>53736</v>
+        <v>52621</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01118245202434685</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.008091466934902168</v>
+        <v>0.008247478554268014</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01548297051849344</v>
+        <v>0.01516180417997211</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>227</v>
@@ -2198,19 +2198,19 @@
         <v>163308</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>141603</v>
+        <v>139752</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>188170</v>
+        <v>188989</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.04438231839739598</v>
+        <v>0.044382318397396</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03848348197474573</v>
+        <v>0.03798050024135467</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05113904971235862</v>
+        <v>0.0513615251934359</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>268</v>
@@ -2219,19 +2219,19 @@
         <v>202119</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>178151</v>
+        <v>174876</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>230405</v>
+        <v>231957</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02826745402918112</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02491540587628028</v>
+        <v>0.02445744022655141</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03222353145184925</v>
+        <v>0.03244051666414906</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>88040</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>69876</v>
+        <v>68344</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>109941</v>
+        <v>110268</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02536717265555576</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02013350828060206</v>
+        <v>0.01969207271408832</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03167751762404968</v>
+        <v>0.03177154350517958</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>311</v>
@@ -2269,19 +2269,19 @@
         <v>204432</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>179704</v>
+        <v>181483</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>228988</v>
+        <v>230319</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05555862716342983</v>
+        <v>0.05555862716342985</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04883810966419537</v>
+        <v>0.04932177861320688</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06223211900790536</v>
+        <v>0.06259384262823739</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>399</v>
@@ -2290,19 +2290,19 @@
         <v>292473</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>262397</v>
+        <v>264207</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>322872</v>
+        <v>327846</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04090401412955104</v>
+        <v>0.04090401412955105</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03669778527822669</v>
+        <v>0.03695091186976728</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04515551577977666</v>
+        <v>0.04585117720387218</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>582426</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>541023</v>
+        <v>535164</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>641769</v>
+        <v>637856</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1678149798498052</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1558856415386225</v>
+        <v>0.1541972755205323</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1849135792262752</v>
+        <v>0.1837862389422701</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1382</v>
@@ -2340,19 +2340,19 @@
         <v>941833</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>896251</v>
+        <v>895334</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>984732</v>
+        <v>986085</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2559620016061994</v>
+        <v>0.2559620016061995</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2435742722310449</v>
+        <v>0.2433250893832595</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2676207784014451</v>
+        <v>0.2679886002745384</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1932</v>
@@ -2361,19 +2361,19 @@
         <v>1524259</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1457515</v>
+        <v>1459231</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1595012</v>
+        <v>1588864</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.213176368552583</v>
+        <v>0.2131763685525831</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2038418283357583</v>
+        <v>0.2040819008200287</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2230716808764219</v>
+        <v>0.2222118035740613</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>2761366</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2704456</v>
+        <v>2704894</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2811134</v>
+        <v>2811425</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7956353954702922</v>
+        <v>0.7956353954702923</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7792377707398853</v>
+        <v>0.7793640321499207</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8099750830263422</v>
+        <v>0.810058692632297</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3364</v>
@@ -2411,19 +2411,19 @@
         <v>2370007</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2318060</v>
+        <v>2323925</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2418710</v>
+        <v>2422953</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.6440970528329747</v>
+        <v>0.6440970528329748</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6299795071480985</v>
+        <v>0.6315734957460374</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.657333113602885</v>
+        <v>0.6584862517633274</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6014</v>
@@ -2432,19 +2432,19 @@
         <v>5131373</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5057101</v>
+        <v>5057908</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>5203275</v>
+        <v>5211093</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.7176521632886846</v>
+        <v>0.7176521632886848</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7072648460826432</v>
+        <v>0.7073776080638728</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7277080809647428</v>
+        <v>0.728801412376912</v>
       </c>
     </row>
     <row r="28">
